--- a/SoftUni-AngularJS-Project/JS-SPA-Self-Evaluation-Protocol.xlsx
+++ b/SoftUni-AngularJS-Project/JS-SPA-Self-Evaluation-Protocol.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="JS-SPA-Self-Evaluation-Protocol" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="61">
   <si>
     <t>Days Commit in GitHub</t>
   </si>
@@ -198,13 +193,22 @@
   </si>
   <si>
     <t>∞</t>
+  </si>
+  <si>
+    <t>antonia_v</t>
+  </si>
+  <si>
+    <t>Antonia Vasileva</t>
+  </si>
+  <si>
+    <t>https://github.com/antoniav/AdsProjectAngularJS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +238,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -329,10 +341,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -360,6 +373,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -372,20 +397,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -656,7 +673,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -667,7 +684,7 @@
   <dimension ref="B2:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,44 +709,50 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="C4" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="C5" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
+      <c r="C7" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -752,12 +775,12 @@
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
@@ -982,12 +1005,12 @@
       <c r="E32" s="5"/>
     </row>
     <row r="33" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="20"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="16"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
@@ -1182,7 +1205,10 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="C7:E7"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/SoftUni-AngularJS-Project/JS-SPA-Self-Evaluation-Protocol.xlsx
+++ b/SoftUni-AngularJS-Project/JS-SPA-Self-Evaluation-Protocol.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
   <si>
     <t>Days Commit in GitHub</t>
   </si>
@@ -163,9 +163,6 @@
   </si>
   <si>
     <t>GitHub (up to 100)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Basic Options (up to 130)</t>
@@ -248,7 +245,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,6 +273,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,7 +348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -394,12 +397,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -673,7 +677,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -684,7 +688,7 @@
   <dimension ref="B2:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,7 +700,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>46</v>
@@ -705,12 +709,12 @@
         <v>25</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -718,20 +722,20 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -746,21 +750,23 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+        <v>50</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="6">
+        <v>7</v>
+      </c>
       <c r="D8" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" s="6"/>
     </row>
@@ -768,15 +774,17 @@
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="6">
+        <v>24</v>
+      </c>
       <c r="D9" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -786,8 +794,8 @@
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>48</v>
+      <c r="C11" s="5">
+        <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>3</v>
@@ -798,7 +806,9 @@
       <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5">
+        <v>5</v>
+      </c>
       <c r="D12" s="5" t="s">
         <v>5</v>
       </c>
@@ -808,17 +818,21 @@
       <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5">
+        <v>5</v>
+      </c>
       <c r="D13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
       <c r="D14" s="5" t="s">
         <v>5</v>
       </c>
@@ -828,7 +842,9 @@
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5">
+        <v>5</v>
+      </c>
       <c r="D15" s="5" t="s">
         <v>5</v>
       </c>
@@ -838,7 +854,9 @@
       <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5">
+        <v>5</v>
+      </c>
       <c r="D16" s="5" t="s">
         <v>5</v>
       </c>
@@ -848,17 +866,21 @@
       <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5">
+        <v>5</v>
+      </c>
       <c r="D17" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
       <c r="D18" s="5" t="s">
         <v>5</v>
       </c>
@@ -868,7 +890,9 @@
       <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
       <c r="D19" s="5" t="s">
         <v>3</v>
       </c>
@@ -878,7 +902,9 @@
       <c r="B20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
       <c r="D20" s="5" t="s">
         <v>5</v>
       </c>
@@ -888,7 +914,9 @@
       <c r="B21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
       <c r="D21" s="5" t="s">
         <v>5</v>
       </c>
@@ -898,7 +926,9 @@
       <c r="B22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
       <c r="D22" s="5" t="s">
         <v>5</v>
       </c>
@@ -908,7 +938,9 @@
       <c r="B23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
       <c r="D23" s="5" t="s">
         <v>5</v>
       </c>
@@ -985,7 +1017,7 @@
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C31" s="5"/>
@@ -1006,7 +1038,7 @@
     </row>
     <row r="33" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
@@ -1188,7 +1220,7 @@
       </c>
       <c r="C51" s="11">
         <f>SUM(C6:C50)</f>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D51" s="11">
         <v>430</v>

--- a/SoftUni-AngularJS-Project/JS-SPA-Self-Evaluation-Protocol.xlsx
+++ b/SoftUni-AngularJS-Project/JS-SPA-Self-Evaluation-Protocol.xlsx
@@ -348,7 +348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -404,6 +404,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -687,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,9 +833,7 @@
       <c r="B14" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="5">
-        <v>0</v>
-      </c>
+      <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
         <v>5</v>
       </c>
@@ -867,20 +868,18 @@
         <v>7</v>
       </c>
       <c r="C17" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="23"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="5">
-        <v>0</v>
-      </c>
+      <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
         <v>5</v>
       </c>
@@ -890,9 +889,7 @@
       <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="5">
-        <v>0</v>
-      </c>
+      <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
         <v>3</v>
       </c>
@@ -902,9 +899,7 @@
       <c r="B20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="5">
-        <v>0</v>
-      </c>
+      <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
         <v>5</v>
       </c>
@@ -914,9 +909,7 @@
       <c r="B21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="5">
-        <v>0</v>
-      </c>
+      <c r="C21" s="5"/>
       <c r="D21" s="5" t="s">
         <v>5</v>
       </c>
@@ -926,9 +919,7 @@
       <c r="B22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="5">
-        <v>0</v>
-      </c>
+      <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
         <v>5</v>
       </c>
@@ -938,9 +929,7 @@
       <c r="B23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="5">
-        <v>0</v>
-      </c>
+      <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
         <v>5</v>
       </c>
@@ -1220,7 +1209,7 @@
       </c>
       <c r="C51" s="11">
         <f>SUM(C6:C50)</f>
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D51" s="11">
         <v>430</v>

--- a/SoftUni-AngularJS-Project/JS-SPA-Self-Evaluation-Protocol.xlsx
+++ b/SoftUni-AngularJS-Project/JS-SPA-Self-Evaluation-Protocol.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="61">
   <si>
     <t>Days Commit in GitHub</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>https://github.com/antoniav/AdsProjectAngularJS</t>
+  </si>
+  <si>
+    <t>"All" filter gives "undefined" error.</t>
   </si>
 </sst>
 </file>
@@ -348,7 +351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -376,36 +379,39 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -680,7 +686,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -690,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,57 +722,57 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>56</v>
@@ -778,7 +784,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="6">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>56</v>
@@ -786,12 +792,12 @@
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
@@ -830,7 +836,7 @@
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="5"/>
@@ -849,7 +855,9 @@
       <c r="D15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="24" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
@@ -873,13 +881,15 @@
       <c r="D17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="23"/>
+      <c r="E17" s="14"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="5">
+        <v>5</v>
+      </c>
       <c r="D18" s="5" t="s">
         <v>5</v>
       </c>
@@ -1006,10 +1016,12 @@
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="5"/>
+      <c r="C31" s="5">
+        <v>5</v>
+      </c>
       <c r="D31" s="5" t="s">
         <v>5</v>
       </c>
@@ -1026,12 +1038,12 @@
       <c r="E32" s="5"/>
     </row>
     <row r="33" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="16"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="18"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
@@ -1209,7 +1221,7 @@
       </c>
       <c r="C51" s="11">
         <f>SUM(C6:C50)</f>
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D51" s="11">
         <v>430</v>

--- a/SoftUni-AngularJS-Project/JS-SPA-Self-Evaluation-Protocol.xlsx
+++ b/SoftUni-AngularJS-Project/JS-SPA-Self-Evaluation-Protocol.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
   <si>
     <t>Days Commit in GitHub</t>
   </si>
@@ -199,9 +199,6 @@
   </si>
   <si>
     <t>https://github.com/antoniav/AdsProjectAngularJS</t>
-  </si>
-  <si>
-    <t>"All" filter gives "undefined" error.</t>
   </si>
 </sst>
 </file>
@@ -697,7 +694,7 @@
   <dimension ref="B2:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,7 +781,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="6">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>56</v>
@@ -855,9 +852,7 @@
       <c r="D15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="24" t="s">
-        <v>60</v>
-      </c>
+      <c r="E15" s="24"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
@@ -1221,7 +1216,7 @@
       </c>
       <c r="C51" s="11">
         <f>SUM(C6:C50)</f>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D51" s="11">
         <v>430</v>

--- a/SoftUni-AngularJS-Project/JS-SPA-Self-Evaluation-Protocol.xlsx
+++ b/SoftUni-AngularJS-Project/JS-SPA-Self-Evaluation-Protocol.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="61">
   <si>
     <t>Days Commit in GitHub</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>https://github.com/antoniav/AdsProjectAngularJS</t>
+  </si>
+  <si>
+    <t>Added ui.bootstrap module to app.js and index.html files + ui control in home.html + pagination.html template BUT NOT COMPLETED!!!</t>
   </si>
 </sst>
 </file>
@@ -348,7 +351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -409,6 +412,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -693,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,15 +838,19 @@
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5">
+        <v>2</v>
+      </c>
       <c r="D14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="25" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
@@ -1216,7 +1226,7 @@
       </c>
       <c r="C51" s="11">
         <f>SUM(C6:C50)</f>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D51" s="11">
         <v>430</v>
